--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -841,13 +841,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>2.4</v>
@@ -901,10 +901,10 @@
         <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC3" t="n">
         <v>4.75</v>
@@ -940,10 +940,10 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.25</v>
@@ -1056,7 +1056,7 @@
         <v>1.57</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1175,10 +1175,10 @@
         <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
         <v>3.55</v>
@@ -1595,16 +1595,24 @@
       <c r="P8" t="n">
         <v>2.8</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.21</v>
+      </c>
       <c r="S8" t="n">
         <v>2.2</v>
       </c>
       <c r="T8" t="n">
         <v>1.62</v>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.33</v>
+      </c>
       <c r="W8" t="n">
         <v>3.8</v>
       </c>
@@ -2209,13 +2217,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
         <v>2.4</v>
@@ -2227,10 +2235,10 @@
         <v>4.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -2241,18 +2249,18 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="X13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y13" t="n">
         <v>1.4</v>
@@ -2491,22 +2499,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -2523,10 +2531,10 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -2549,7 +2557,7 @@
         <v>1.83</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
         <v>10</v>
@@ -2567,7 +2575,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.5</v>
@@ -2588,7 +2596,7 @@
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>34</v>
@@ -2795,10 +2803,10 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -2809,10 +2817,10 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2936,10 +2944,10 @@
         <v>8.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
@@ -2958,10 +2966,10 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y18" t="n">
         <v>1.33</v>
@@ -3080,7 +3088,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3507,7 +3515,7 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -722,10 +722,10 @@
         <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="R2" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -871,16 +871,16 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
         <v>4.3</v>
@@ -889,10 +889,10 @@
         <v>1.22</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y3" t="n">
         <v>1.57</v>
@@ -940,10 +940,10 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>2.25</v>
@@ -1020,10 +1020,10 @@
         <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R4" t="n">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="S4" t="n">
         <v>2.3</v>
@@ -1032,10 +1032,10 @@
         <v>1.6</v>
       </c>
       <c r="U4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
         <v>4.33</v>
@@ -1071,16 +1071,16 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>81</v>
@@ -1095,7 +1095,7 @@
         <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>67</v>
@@ -1142,13 +1142,13 @@
         <v>1.75</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
         <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
@@ -1160,7 +1160,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1223,13 +1223,13 @@
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>67</v>
@@ -1238,7 +1238,7 @@
         <v>501</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
         <v>23</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>2.25</v>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
         <v>3</v>
@@ -1312,49 +1312,49 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="R6" t="n">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="U6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="X6" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AB6" t="n">
         <v>1.8</v>
       </c>
-      <c r="AB6" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>17</v>
@@ -1363,19 +1363,19 @@
         <v>13</v>
       </c>
       <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
         <v>34</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>29</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
@@ -1384,10 +1384,10 @@
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO6" t="n">
         <v>10</v>
@@ -1399,10 +1399,10 @@
         <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="J7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="L7" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1477,61 +1477,61 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="AC7" t="n">
         <v>10</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP7" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AR7" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AS7" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -1596,10 +1596,10 @@
         <v>2.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R8" t="n">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="S8" t="n">
         <v>2.2</v>
@@ -1608,10 +1608,10 @@
         <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W8" t="n">
         <v>3.8</v>
@@ -1863,45 +1863,115 @@
           <t>Smouha</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.18</v>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.39</v>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2217,13 +2287,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>2.4</v>
@@ -2249,10 +2319,10 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2293,7 +2363,7 @@
         <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
         <v>6.5</v>
@@ -2305,7 +2375,7 @@
         <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN13" t="n">
         <v>13</v>
@@ -2370,7 +2440,7 @@
         <v>2.75</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>4.5</v>
@@ -2437,22 +2507,22 @@
         <v>8</v>
       </c>
       <c r="AJ14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK14" t="n">
         <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM14" t="n">
         <v>401</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -2531,10 +2601,10 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -2785,16 +2855,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -2817,10 +2887,10 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -2846,7 +2916,7 @@
         <v>6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>8.5</v>
@@ -2861,7 +2931,7 @@
         <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
         <v>7</v>
@@ -3073,7 +3143,7 @@
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
         <v>2.75</v>
@@ -3085,10 +3155,10 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3143,7 +3213,7 @@
         <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
         <v>6.5</v>
@@ -3208,13 +3278,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -3287,10 +3357,10 @@
         <v>9.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>51</v>
@@ -3308,7 +3378,7 @@
         <v>8.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>15</v>
@@ -3868,7 +3938,7 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
         <v>6.5</v>
@@ -4004,22 +4074,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
         <v>2.2</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -4036,10 +4106,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4056,28 +4126,28 @@
         <v>2.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AB26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI26" t="n">
         <v>11</v>
@@ -4098,16 +4168,16 @@
         <v>8.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AQ26" t="n">
         <v>21</v>
       </c>
       <c r="AR26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>26</v>
@@ -4145,109 +4215,113 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.75</v>
+        <v>7.6</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
       <c r="J27" t="n">
-        <v>7.3</v>
+        <v>6.4</v>
       </c>
       <c r="K27" t="n">
-        <v>2.85</v>
+        <v>2.67</v>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+        <v>1.72</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9.75</v>
+      </c>
       <c r="O27" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P27" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="T27" t="n">
-        <v>2.95</v>
+        <v>2.57</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="X27" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AB27" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AC27" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AD27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG27" t="n">
         <v>75</v>
       </c>
-      <c r="AE27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>250</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>100</v>
-      </c>
       <c r="AH27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL27" t="n">
         <v>70</v>
       </c>
-      <c r="AI27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>65</v>
-      </c>
       <c r="AM27" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AN27" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AP27" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AR27" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AS27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -707,13 +707,13 @@
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -722,10 +722,10 @@
         <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
@@ -791,16 +791,16 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>12</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.25</v>
@@ -1056,7 +1056,7 @@
         <v>1.57</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1071,16 +1071,16 @@
         <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
         <v>81</v>
@@ -1095,7 +1095,7 @@
         <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>67</v>
@@ -1139,34 +1139,34 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.85</v>
@@ -1175,22 +1175,22 @@
         <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y5" t="n">
         <v>1.5</v>
@@ -1211,19 +1211,19 @@
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>7</v>
@@ -1238,19 +1238,19 @@
         <v>501</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1318,22 +1318,22 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W6" t="n">
         <v>4.33</v>
@@ -1348,13 +1348,13 @@
         <v>2.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
         <v>17</v>
@@ -1372,34 +1372,34 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN6" t="n">
         <v>6.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
         <v>9.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>34</v>
@@ -1566,121 +1566,121 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
       </c>
       <c r="P8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="X8" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="AA8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AB8" t="n">
         <v>1.8</v>
       </c>
-      <c r="AB8" t="n">
-        <v>1.91</v>
-      </c>
       <c r="AC8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
         <v>9.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS8" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1864,113 +1864,113 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="I10" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="J10" t="n">
         <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="X10" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.27</v>
+        <v>2.05</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH10" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
         <v>101</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AS10" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -2319,10 +2319,10 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2452,10 +2452,10 @@
         <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
@@ -2587,16 +2587,16 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H16" t="n">
         <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.38</v>
       </c>
       <c r="L16" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
@@ -2808,13 +2808,13 @@
         <v>7</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP16" t="n">
         <v>8.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR16" t="n">
         <v>12</v>
@@ -3858,10 +3858,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
         <v>3.4</v>
@@ -3873,7 +3873,7 @@
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>1.05</v>
@@ -3890,10 +3890,10 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
@@ -3914,10 +3914,10 @@
         <v>3</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AC24" t="n">
         <v>8.5</v>
@@ -3935,10 +3935,10 @@
         <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
         <v>6.5</v>
@@ -3950,10 +3950,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>19</v>
@@ -4106,18 +4106,18 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T26" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y26" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -716,16 +716,16 @@
         <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2.21</v>
       </c>
       <c r="R2" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
@@ -734,7 +734,7 @@
         <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="V2" t="n">
         <v>1.17</v>
@@ -847,13 +847,13 @@
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -901,13 +901,13 @@
         <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -943,10 +943,10 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
@@ -1056,7 +1056,7 @@
         <v>1.57</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1175,16 +1175,16 @@
         <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="V5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
         <v>4</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J6" t="n">
         <v>4.33</v>
@@ -1306,46 +1306,46 @@
         <v>2.88</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="S6" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="U6" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA6" t="n">
         <v>2</v>
@@ -1354,7 +1354,7 @@
         <v>1.75</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
         <v>17</v>
@@ -1375,7 +1375,7 @@
         <v>7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK6" t="n">
         <v>17</v>
@@ -1390,7 +1390,7 @@
         <v>6.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
         <v>9.5</v>
@@ -1399,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>34</v>
@@ -1440,7 +1440,7 @@
         <v>1.23</v>
       </c>
       <c r="H7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I7" t="n">
         <v>9.25</v>
@@ -1452,7 +1452,7 @@
         <v>2.77</v>
       </c>
       <c r="L7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1480,10 +1480,10 @@
         <v>1.78</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD7" t="n">
         <v>7.5</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1587,7 +1587,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1602,10 +1602,10 @@
         <v>2.14</v>
       </c>
       <c r="S8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
         <v>3.4</v>
@@ -1614,10 +1614,10 @@
         <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y8" t="n">
         <v>1.5</v>
@@ -1864,65 +1864,65 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="I10" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="M10" t="n">
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="X10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD10" t="n">
         <v>13</v>
@@ -1934,16 +1934,16 @@
         <v>37</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="n">
         <v>50</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AK10" t="n">
         <v>17</v>
@@ -1955,22 +1955,22 @@
         <v>101</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AO10" t="n">
         <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AQ10" t="n">
         <v>32</v>
       </c>
       <c r="AR10" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AS10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
         <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
@@ -2054,31 +2054,31 @@
         <v>1.45</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AA11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI11" t="n">
         <v>6.1</v>
@@ -2090,16 +2090,16 @@
         <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AM11" t="n">
         <v>900</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AP11" t="n">
         <v>8.25</v>
@@ -2108,7 +2108,7 @@
         <v>14.5</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AS11" t="n">
         <v>32</v>
@@ -2152,33 +2152,33 @@
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.72</v>
       </c>
       <c r="K12" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T12" t="n">
         <v>1.75</v>
@@ -2186,22 +2186,22 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X12" t="n">
         <v>1.29</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AC12" t="n">
         <v>5.1</v>
@@ -2216,13 +2216,13 @@
         <v>7.1</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>45</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="n">
         <v>9.5</v>
@@ -2231,7 +2231,7 @@
         <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AM12" t="n">
         <v>101</v>
@@ -2243,13 +2243,13 @@
         <v>90</v>
       </c>
       <c r="AP12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ12" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AR12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS12" t="n">
         <v>175</v>
@@ -2434,22 +2434,22 @@
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J14" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2495,7 +2495,7 @@
         <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
         <v>19</v>
@@ -2504,7 +2504,7 @@
         <v>34</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>6</v>
@@ -2513,16 +2513,16 @@
         <v>17</v>
       </c>
       <c r="AL14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM14" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AN14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -2575,36 +2575,36 @@
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -2621,19 +2621,19 @@
         <v>2.63</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
@@ -2645,7 +2645,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.5</v>
@@ -2657,16 +2657,16 @@
         <v>51</v>
       </c>
       <c r="AM15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>34</v>
@@ -2873,10 +2873,10 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -3028,10 +3028,10 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3155,10 +3155,10 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3177,10 +3177,10 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y19" t="n">
         <v>1.44</v>
@@ -3296,32 +3296,32 @@
         <v>2.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y20" t="n">
         <v>1.4</v>
@@ -3437,10 +3437,10 @@
         <v>4.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
@@ -3600,10 +3600,10 @@
         <v>2.05</v>
       </c>
       <c r="S22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -3709,13 +3709,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
         <v>2.6</v>
@@ -3775,7 +3775,7 @@
         <v>1.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
         <v>8.5</v>
@@ -3784,7 +3784,7 @@
         <v>9</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
         <v>17</v>
@@ -3890,10 +3890,10 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
@@ -4086,16 +4086,16 @@
         <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
         <v>2.88</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -4132,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD26" t="n">
         <v>17</v>
@@ -4150,7 +4150,7 @@
         <v>34</v>
       </c>
       <c r="AI26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ26" t="n">
         <v>6.5</v>
@@ -4165,7 +4165,7 @@
         <v>201</v>
       </c>
       <c r="AN26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.6</v>
@@ -710,10 +710,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -740,10 +740,10 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Y2" t="n">
         <v>1.67</v>
@@ -791,10 +791,10 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>12</v>
@@ -847,7 +847,7 @@
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
         <v>2.38</v>
@@ -859,10 +859,10 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -883,10 +883,10 @@
         <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -943,10 +943,10 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
@@ -1175,10 +1175,10 @@
         <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U5" t="n">
         <v>3.35</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J6" t="n">
         <v>4.33</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1372,7 +1372,7 @@
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>5.5</v>
@@ -1381,10 +1381,10 @@
         <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AN6" t="n">
         <v>6.5</v>
@@ -1396,7 +1396,7 @@
         <v>9.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
         <v>21</v>
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="H7" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K7" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="L7" t="n">
-        <v>7.2</v>
+        <v>8.25</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1461,77 +1461,77 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>2.65</v>
+        <v>2.52</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AC7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AG7" t="n">
         <v>10.25</v>
       </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10</v>
-      </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL7" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AN7" t="n">
         <v>32</v>
       </c>
       <c r="AO7" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AQ7" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AR7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS7" t="n">
         <v>100</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1581,13 +1581,13 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1632,16 +1632,16 @@
         <v>1.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
         <v>29</v>
@@ -1662,13 +1662,13 @@
         <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AN8" t="n">
         <v>6.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
         <v>9.5</v>
@@ -1677,7 +1677,7 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
         <v>34</v>
@@ -2146,59 +2146,59 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
         <v>1.72</v>
       </c>
       <c r="K12" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L12" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T12" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X12" t="n">
         <v>1.29</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AB12" t="n">
         <v>1.44</v>
@@ -2207,13 +2207,13 @@
         <v>5.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AE12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AG12" t="n">
         <v>13.5</v>
@@ -2222,10 +2222,10 @@
         <v>45</v>
       </c>
       <c r="AI12" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
@@ -2249,7 +2249,7 @@
         <v>500</v>
       </c>
       <c r="AR12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AS12" t="n">
         <v>175</v>
@@ -2434,22 +2434,22 @@
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2486,7 +2486,7 @@
         <v>1.73</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
         <v>9</v>
@@ -2713,7 +2713,7 @@
         <v>6.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I16" t="n">
         <v>1.48</v>
@@ -2731,7 +2731,7 @@
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -2784,19 +2784,19 @@
         <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="n">
         <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>51</v>
@@ -3278,13 +3278,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -3293,35 +3293,35 @@
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y20" t="n">
         <v>1.4</v>
@@ -3369,7 +3369,7 @@
         <v>301</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO20" t="n">
         <v>8</v>
@@ -3437,10 +3437,10 @@
         <v>4.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
@@ -3451,10 +3451,10 @@
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
         <v>1.93</v>
@@ -3570,7 +3570,7 @@
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
@@ -3585,7 +3585,7 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -3600,10 +3600,10 @@
         <v>2.05</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -3614,10 +3614,10 @@
         <v>1.22</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA22" t="n">
         <v>1.95</v>
@@ -3632,7 +3632,7 @@
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
@@ -3730,7 +3730,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -3757,10 +3757,10 @@
         <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y23" t="n">
         <v>1.44</v>
@@ -3858,16 +3858,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
@@ -3890,10 +3890,10 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
@@ -3920,10 +3920,10 @@
         <v>2.05</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>9</v>
@@ -3932,10 +3932,10 @@
         <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>11</v>
@@ -3953,19 +3953,19 @@
         <v>201</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS24" t="n">
         <v>34</v>
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H26" t="n">
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
@@ -4092,10 +4092,10 @@
         <v>2.88</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -4132,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -695,25 +695,25 @@
         <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.62</v>
@@ -722,7 +722,7 @@
         <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
       <c r="R2" t="n">
         <v>1.67</v>
@@ -752,10 +752,10 @@
         <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
@@ -776,10 +776,10 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>5</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>5.5</v>
       </c>
       <c r="AK2" t="n">
         <v>19</v>
@@ -859,28 +859,28 @@
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
         <v>4.2</v>
@@ -901,13 +901,13 @@
         <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -990,16 +990,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
@@ -1011,37 +1011,37 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y4" t="n">
         <v>1.5</v>
@@ -1056,7 +1056,7 @@
         <v>1.57</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1068,7 +1068,7 @@
         <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>41</v>
@@ -1077,7 +1077,7 @@
         <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
@@ -1089,13 +1089,13 @@
         <v>101</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>67</v>
@@ -1175,16 +1175,16 @@
         <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U5" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W5" t="n">
         <v>4</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1318,28 +1318,28 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="V6" t="n">
         <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y6" t="n">
         <v>1.53</v>
@@ -1354,7 +1354,7 @@
         <v>1.75</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>17</v>
@@ -1390,10 +1390,10 @@
         <v>6.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>21</v>
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="K7" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="L7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1461,23 +1461,23 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T7" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X7" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="AB7" t="n">
         <v>1.7</v>
@@ -1489,25 +1489,25 @@
         <v>6.8</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>27</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>25</v>
       </c>
       <c r="AL7" t="n">
         <v>110</v>
@@ -1516,22 +1516,22 @@
         <v>800</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO7" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ7" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AR7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
@@ -1602,10 +1602,10 @@
         <v>2.14</v>
       </c>
       <c r="S8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
         <v>3.4</v>
@@ -1614,10 +1614,10 @@
         <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y8" t="n">
         <v>1.5</v>
@@ -1626,13 +1626,13 @@
         <v>2.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>17</v>
@@ -1677,7 +1677,7 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS8" t="n">
         <v>34</v>
@@ -1864,19 +1864,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="H10" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="I10" t="n">
         <v>2.72</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="L10" t="n">
         <v>3.45</v>
@@ -1885,92 +1885,92 @@
         <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="T10" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.75</v>
+        <v>4.55</v>
       </c>
       <c r="X10" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD10" t="n">
         <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF10" t="n">
         <v>37</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AH10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.4</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AM10" t="n">
         <v>101</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AQ10" t="n">
         <v>32</v>
       </c>
       <c r="AR10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -2005,34 +2005,34 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.85</v>
+        <v>4.55</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -2040,7 +2040,7 @@
         <v>2.18</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2051,64 +2051,64 @@
         <v>1.23</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH11" t="n">
         <v>60</v>
       </c>
-      <c r="AH11" t="n">
-        <v>65</v>
-      </c>
       <c r="AI11" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM11" t="n">
         <v>900</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AP11" t="n">
         <v>8.25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AR11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
         <v>32</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2339,16 +2339,16 @@
         <v>2.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AC13" t="n">
         <v>7.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>8.5</v>
@@ -2372,7 +2372,7 @@
         <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
         <v>201</v>
@@ -2381,13 +2381,13 @@
         <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
         <v>34</v>
@@ -2575,10 +2575,10 @@
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
@@ -2590,7 +2590,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2601,7 +2601,7 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
         <v>1.8</v>
@@ -2630,7 +2630,7 @@
         <v>7.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>9</v>
@@ -2645,7 +2645,7 @@
         <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.5</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H16" t="n">
         <v>4.33</v>
       </c>
       <c r="I16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="J16" t="n">
         <v>6.5</v>
@@ -2725,27 +2725,27 @@
         <v>2.38</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="n">
         <v>2.05</v>
@@ -2754,10 +2754,10 @@
         <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y16" t="n">
         <v>1.33</v>
@@ -2766,10 +2766,10 @@
         <v>3.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC16" t="n">
         <v>17</v>
@@ -2778,10 +2778,10 @@
         <v>34</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="n">
         <v>51</v>
@@ -2873,10 +2873,10 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -3028,10 +3028,10 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3137,28 +3137,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3177,10 +3177,10 @@
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y19" t="n">
         <v>1.44</v>
@@ -3189,31 +3189,31 @@
         <v>2.63</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>9</v>
-      </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ19" t="n">
         <v>6.5</v>
@@ -3225,25 +3225,25 @@
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR19" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AS19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3281,65 +3281,65 @@
         <v>4.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L20" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
-        <v>1.8</v>
+        <v>2.03</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
         <v>15</v>
@@ -3354,25 +3354,25 @@
         <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP20" t="n">
         <v>8.5</v>
@@ -3381,10 +3381,10 @@
         <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -3419,16 +3419,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H21" t="n">
         <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K21" t="n">
         <v>2.3</v>
@@ -3437,24 +3437,24 @@
         <v>4.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T21" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="U21" t="n">
         <v>1.93</v>
@@ -3463,10 +3463,10 @@
         <v>1.93</v>
       </c>
       <c r="W21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y21" t="n">
         <v>1.33</v>
@@ -3484,7 +3484,7 @@
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE21" t="n">
         <v>8.5</v>
@@ -3514,7 +3514,7 @@
         <v>201</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO21" t="n">
         <v>23</v>
@@ -3570,7 +3570,7 @@
         <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
@@ -3585,13 +3585,13 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
         <v>1.8</v>
@@ -3600,10 +3600,10 @@
         <v>2.05</v>
       </c>
       <c r="S22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -3632,7 +3632,7 @@
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
@@ -3712,31 +3712,31 @@
         <v>1.91</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q23" t="n">
         <v>1.47</v>
@@ -3745,10 +3745,10 @@
         <v>2.65</v>
       </c>
       <c r="S23" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="T23" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="U23" t="n">
         <v>2.55</v>
@@ -3757,28 +3757,28 @@
         <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="X23" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE23" t="n">
         <v>9</v>
@@ -3787,40 +3787,40 @@
         <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM23" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AN23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
         <v>19</v>
       </c>
       <c r="AP23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS23" t="n">
         <v>41</v>
@@ -3861,13 +3861,13 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
         <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
@@ -3882,18 +3882,18 @@
         <v>11</v>
       </c>
       <c r="O24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T24" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
@@ -3902,22 +3902,22 @@
         <v>1.65</v>
       </c>
       <c r="W24" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AB24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AC24" t="n">
         <v>8</v>
@@ -3932,13 +3932,13 @@
         <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ24" t="n">
         <v>6.5</v>
@@ -3953,7 +3953,7 @@
         <v>201</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
         <v>19</v>
@@ -4106,10 +4106,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T26" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4132,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD26" t="n">
         <v>17</v>
@@ -4159,7 +4159,7 @@
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM26" t="n">
         <v>201</v>
@@ -4168,7 +4168,7 @@
         <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP26" t="n">
         <v>9</v>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="H27" t="n">
         <v>5.2</v>
@@ -4224,7 +4224,7 @@
         <v>1.32</v>
       </c>
       <c r="J27" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="K27" t="n">
         <v>2.67</v>
@@ -4273,7 +4273,7 @@
         <v>1.98</v>
       </c>
       <c r="AC27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD27" t="n">
         <v>55</v>
@@ -4285,7 +4285,7 @@
         <v>175</v>
       </c>
       <c r="AG27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AH27" t="n">
         <v>60</v>
@@ -4309,7 +4309,7 @@
         <v>9.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AP27" t="n">
         <v>8.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H2" t="n">
         <v>2.63</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
@@ -713,31 +713,31 @@
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.22</v>
+        <v>2.29</v>
       </c>
       <c r="R2" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U2" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -752,37 +752,37 @@
         <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>81</v>
@@ -791,16 +791,16 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP2" t="n">
         <v>11</v>
       </c>
-      <c r="AP2" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -844,10 +844,10 @@
         <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.38</v>
@@ -871,10 +871,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>2.4</v>
@@ -883,10 +883,10 @@
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -895,25 +895,25 @@
         <v>1.17</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF3" t="n">
         <v>12</v>
@@ -925,7 +925,7 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>7</v>
@@ -934,7 +934,7 @@
         <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
@@ -943,10 +943,10 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
@@ -955,7 +955,7 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1020,10 +1020,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>2.35</v>
@@ -1032,10 +1032,10 @@
         <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
         <v>4.5</v>
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1163,10 +1163,10 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
         <v>1.85</v>
@@ -1175,16 +1175,16 @@
         <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U5" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="V5" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
         <v>4</v>
@@ -1214,7 +1214,7 @@
         <v>8.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1229,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>67</v>
@@ -1238,19 +1238,19 @@
         <v>501</v>
       </c>
       <c r="AN5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
         <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
@@ -1330,10 +1330,10 @@
         <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1402,7 +1402,7 @@
         <v>21</v>
       </c>
       <c r="AS6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
@@ -1452,7 +1452,7 @@
         <v>2.8</v>
       </c>
       <c r="L7" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1531,7 +1531,7 @@
         <v>150</v>
       </c>
       <c r="AS7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1587,7 +1587,7 @@
         <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.4</v>
@@ -1602,10 +1602,10 @@
         <v>2.14</v>
       </c>
       <c r="S8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
         <v>3.4</v>
@@ -1614,10 +1614,10 @@
         <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y8" t="n">
         <v>1.5</v>
@@ -1864,98 +1864,98 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="H10" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.75</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.72</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K10" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
         <v>3.45</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="X10" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
         <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF10" t="n">
         <v>37</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.4</v>
       </c>
       <c r="AK10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AM10" t="n">
         <v>101</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AO10" t="n">
         <v>12.5</v>
@@ -1964,7 +1964,7 @@
         <v>10.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR10" t="n">
         <v>29</v>
@@ -2149,98 +2149,98 @@
         <v>1.28</v>
       </c>
       <c r="H12" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="K12" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
         <v>9.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="X12" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF12" t="n">
         <v>6.9</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>45</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AJ12" t="n">
         <v>9.75</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AM12" t="n">
         <v>101</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AP12" t="n">
         <v>40</v>
@@ -2428,101 +2428,105 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.75</v>
       </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N14" t="n">
-        <v>8</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="T14" t="n">
         <v>1.44</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.62</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AC14" t="n">
         <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AH14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM14" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -2569,98 +2573,98 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="X15" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
         <v>10</v>
       </c>
       <c r="AE15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>51</v>
       </c>
       <c r="AM15" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
@@ -2675,7 +2679,7 @@
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2710,42 +2714,42 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="J16" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
         <v>2.05</v>
@@ -2754,10 +2758,10 @@
         <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y16" t="n">
         <v>1.33</v>
@@ -2766,61 +2770,61 @@
         <v>3.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AC16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK16" t="n">
         <v>21</v>
       </c>
-      <c r="AF16" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>19</v>
-      </c>
       <c r="AL16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM16" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AN16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP16" t="n">
         <v>8.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AR16" t="n">
         <v>12</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2855,16 +2859,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
         <v>4.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
@@ -2873,32 +2877,32 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="X17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y17" t="n">
         <v>1.44</v>
@@ -2907,16 +2911,16 @@
         <v>2.63</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
         <v>8.5</v>
@@ -2931,22 +2935,22 @@
         <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK17" t="n">
         <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM17" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
         <v>23</v>
@@ -3137,22 +3141,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J19" t="n">
         <v>2.88</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -3195,19 +3199,19 @@
         <v>1.95</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>29</v>
@@ -3225,22 +3229,22 @@
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS19" t="n">
         <v>34</v>
@@ -3278,62 +3282,62 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
         <v>2.3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="T20" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AC20" t="n">
         <v>13</v>
@@ -3342,7 +3346,7 @@
         <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
@@ -3354,25 +3358,25 @@
         <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL20" t="n">
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AN20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO20" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>8.5</v>
       </c>
       <c r="AP20" t="n">
         <v>8.5</v>
@@ -3384,7 +3388,7 @@
         <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3419,42 +3423,42 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="T21" t="n">
-        <v>2.15</v>
+        <v>1.88</v>
       </c>
       <c r="U21" t="n">
         <v>1.93</v>
@@ -3463,28 +3467,28 @@
         <v>1.93</v>
       </c>
       <c r="W21" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="X21" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AC21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD21" t="n">
         <v>8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>8.5</v>
       </c>
       <c r="AE21" t="n">
         <v>8.5</v>
@@ -3493,28 +3497,28 @@
         <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ21" t="n">
         <v>7.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM21" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>23</v>
@@ -3526,10 +3530,10 @@
         <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -3588,10 +3592,10 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
         <v>1.8</v>
@@ -3858,13 +3862,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
         <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
@@ -3876,24 +3880,24 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
@@ -3902,10 +3906,10 @@
         <v>1.65</v>
       </c>
       <c r="W24" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="X24" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Y24" t="n">
         <v>1.4</v>
@@ -3959,7 +3963,7 @@
         <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -841,16 +841,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
         <v>2.4</v>
@@ -889,10 +889,10 @@
         <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y3" t="n">
         <v>1.53</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -934,7 +934,7 @@
         <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
@@ -943,10 +943,10 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
@@ -955,7 +955,7 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -1020,10 +1020,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
         <v>2.35</v>
@@ -1142,25 +1142,25 @@
         <v>1.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.38</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1169,28 +1169,28 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="T5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y5" t="n">
         <v>1.5</v>
@@ -1199,10 +1199,10 @@
         <v>2.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC5" t="n">
         <v>5.5</v>
@@ -1211,28 +1211,28 @@
         <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH5" t="n">
         <v>34</v>
       </c>
       <c r="AI5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="n">
         <v>501</v>
@@ -1244,13 +1244,13 @@
         <v>26</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>51</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1333,7 +1333,7 @@
         <v>3.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1342,10 +1342,10 @@
         <v>1.17</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA6" t="n">
         <v>2</v>
@@ -1354,19 +1354,19 @@
         <v>1.75</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
@@ -1387,19 +1387,19 @@
         <v>451</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS6" t="n">
         <v>41</v>
@@ -1452,7 +1452,7 @@
         <v>2.8</v>
       </c>
       <c r="L7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1464,7 +1464,7 @@
         <v>1.39</v>
       </c>
       <c r="T7" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1531,7 +1531,7 @@
         <v>150</v>
       </c>
       <c r="AS7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
@@ -1864,13 +1864,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="I10" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="J10" t="n">
         <v>3.65</v>
@@ -1879,56 +1879,56 @@
         <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="X10" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF10" t="n">
         <v>37</v>
@@ -1937,40 +1937,40 @@
         <v>32</v>
       </c>
       <c r="AH10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.4</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO10" t="n">
         <v>12.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AQ10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR10" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AS10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -2005,39 +2005,39 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L11" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P11" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="T11" t="n">
         <v>1.6</v>
@@ -2045,10 +2045,10 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="Y11" t="n">
         <v>1.47</v>
@@ -2063,52 +2063,52 @@
         <v>1.78</v>
       </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD11" t="n">
         <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG11" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AK11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL11" t="n">
         <v>90</v>
       </c>
       <c r="AM11" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AO11" t="n">
         <v>8.25</v>
       </c>
       <c r="AP11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AS11" t="n">
         <v>32</v>
@@ -2146,98 +2146,98 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="I12" t="n">
         <v>12.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
         <v>9.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="X12" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="AC12" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AD12" t="n">
         <v>5.3</v>
       </c>
-      <c r="AD12" t="n">
-        <v>5</v>
-      </c>
       <c r="AE12" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AM12" t="n">
         <v>101</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
         <v>100</v>
@@ -2252,7 +2252,7 @@
         <v>200</v>
       </c>
       <c r="AS12" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13">
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
         <v>4.33</v>
@@ -2299,38 +2299,38 @@
         <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
         <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="T13" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="X13" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Y13" t="n">
         <v>1.4</v>
@@ -2339,16 +2339,16 @@
         <v>2.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AB13" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
         <v>8.5</v>
@@ -2363,7 +2363,7 @@
         <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>6.5</v>
@@ -2372,13 +2372,13 @@
         <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>21</v>
@@ -2573,22 +2573,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2597,13 +2597,17 @@
         <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+        <v>2.75</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.1</v>
+      </c>
       <c r="S15" t="n">
         <v>2.3</v>
       </c>
@@ -2625,13 +2629,13 @@
         <v>2.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD15" t="n">
         <v>10</v>
@@ -2649,34 +2653,34 @@
         <v>34</v>
       </c>
       <c r="AI15" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK15" t="n">
         <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM15" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS15" t="n">
         <v>41</v>
@@ -2859,7 +2863,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
@@ -2877,16 +2881,16 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -3015,13 +3019,13 @@
         <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
@@ -3052,13 +3056,13 @@
         <v>3.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
@@ -3067,7 +3071,7 @@
         <v>9</v>
       </c>
       <c r="AF18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -3091,22 +3095,22 @@
         <v>501</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR18" t="n">
         <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -3141,13 +3145,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
         <v>2.88</v>
@@ -3156,13 +3160,13 @@
         <v>2.1</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3208,7 +3212,7 @@
         <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>19</v>
@@ -3235,7 +3239,7 @@
         <v>9.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
         <v>12</v>
@@ -3244,7 +3248,7 @@
         <v>34</v>
       </c>
       <c r="AR19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS19" t="n">
         <v>34</v>
@@ -3282,13 +3286,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J20" t="n">
         <v>5.5</v>
@@ -3297,7 +3301,7 @@
         <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3306,18 +3310,18 @@
         <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P20" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3334,16 +3338,16 @@
         <v>2.75</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
@@ -3373,7 +3377,7 @@
         <v>301</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO20" t="n">
         <v>7.5</v>
@@ -3382,7 +3386,7 @@
         <v>8.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>13</v>
@@ -3423,42 +3427,42 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H21" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="L21" t="n">
         <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="T21" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="U21" t="n">
         <v>1.93</v>
@@ -3467,28 +3471,28 @@
         <v>1.93</v>
       </c>
       <c r="W21" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="X21" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE21" t="n">
         <v>8.5</v>
@@ -3497,28 +3501,28 @@
         <v>13</v>
       </c>
       <c r="AG21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI21" t="n">
         <v>15</v>
       </c>
-      <c r="AH21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>11</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>51</v>
       </c>
       <c r="AM21" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>23</v>
@@ -3530,10 +3534,10 @@
         <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3571,19 +3575,19 @@
         <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -3592,10 +3596,10 @@
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
         <v>1.8</v>
@@ -3604,33 +3608,33 @@
         <v>2.05</v>
       </c>
       <c r="S22" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X22" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>15</v>
@@ -3648,7 +3652,7 @@
         <v>41</v>
       </c>
       <c r="AI22" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ22" t="n">
         <v>6.5</v>
@@ -3657,13 +3661,13 @@
         <v>17</v>
       </c>
       <c r="AL22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM22" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AN22" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO22" t="n">
         <v>10</v>
@@ -3675,7 +3679,7 @@
         <v>21</v>
       </c>
       <c r="AR22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS22" t="n">
         <v>34</v>
@@ -3713,34 +3717,34 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
         <v>1.47</v>
@@ -3749,10 +3753,10 @@
         <v>2.65</v>
       </c>
       <c r="S23" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="T23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
         <v>2.55</v>
@@ -3761,22 +3765,22 @@
         <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AC23" t="n">
         <v>6</v>
@@ -3788,19 +3792,19 @@
         <v>9</v>
       </c>
       <c r="AF23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG23" t="n">
         <v>17</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>19</v>
       </c>
       <c r="AH23" t="n">
         <v>34</v>
       </c>
       <c r="AI23" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK23" t="n">
         <v>19</v>
@@ -3809,13 +3813,13 @@
         <v>67</v>
       </c>
       <c r="AM23" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>15</v>
@@ -3865,39 +3869,39 @@
         <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
       </c>
       <c r="K24" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
@@ -3906,28 +3910,28 @@
         <v>1.65</v>
       </c>
       <c r="W24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AB24" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE24" t="n">
         <v>9</v>
@@ -3936,43 +3940,43 @@
         <v>19</v>
       </c>
       <c r="AG24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO24" t="n">
         <v>17</v>
       </c>
-      <c r="AH24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AP24" t="n">
         <v>13</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>12</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -4078,22 +4082,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
         <v>3.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.05</v>
@@ -4110,18 +4114,18 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y26" t="n">
         <v>1.4</v>
@@ -4136,7 +4140,7 @@
         <v>2</v>
       </c>
       <c r="AC26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
         <v>17</v>
@@ -4145,10 +4149,10 @@
         <v>12</v>
       </c>
       <c r="AF26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH26" t="n">
         <v>34</v>
@@ -4169,7 +4173,7 @@
         <v>201</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO26" t="n">
         <v>10</v>
@@ -4178,7 +4182,7 @@
         <v>9</v>
       </c>
       <c r="AQ26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>17</v>
@@ -4219,113 +4223,113 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="I27" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="J27" t="n">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="L27" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T27" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="X27" t="n">
         <v>1.65</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="AC27" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AD27" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AF27" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AH27" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AK27" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AM27" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>10.25</v>
       </c>
       <c r="AS27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -692,16 +692,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.63</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
         <v>1.8</v>
@@ -752,25 +752,25 @@
         <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
@@ -791,22 +791,22 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -883,10 +883,10 @@
         <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
         <v>4.5</v>
@@ -910,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
@@ -928,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
@@ -940,7 +940,7 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO3" t="n">
         <v>29</v>
@@ -949,7 +949,7 @@
         <v>21</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
         <v>2.38</v>
@@ -1160,7 +1160,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1181,10 +1181,10 @@
         <v>1.57</v>
       </c>
       <c r="U5" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W5" t="n">
         <v>4.33</v>
@@ -1208,7 +1208,7 @@
         <v>5.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>9</v>
@@ -1247,7 +1247,7 @@
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1306,10 +1306,10 @@
         <v>3.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1330,10 +1330,10 @@
         <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="V6" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1437,19 +1437,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
         <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="K7" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L7" t="n">
         <v>8.5</v>
@@ -1461,62 +1461,62 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="T7" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="X7" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="AE7" t="n">
         <v>9.75</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>28</v>
       </c>
-      <c r="AI7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>27</v>
-      </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="n">
         <v>800</v>
       </c>
       <c r="AN7" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
         <v>90</v>
@@ -1525,13 +1525,13 @@
         <v>37</v>
       </c>
       <c r="AQ7" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AR7" t="n">
         <v>150</v>
       </c>
       <c r="AS7" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
@@ -1596,28 +1596,28 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R8" t="n">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="S8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Y8" t="n">
         <v>1.5</v>
@@ -1864,83 +1864,83 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H10" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="I10" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K10" t="n">
         <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.12</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="T10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="X10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AB10" t="n">
         <v>1.75</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
         <v>45</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AJ10" t="n">
         <v>5.4</v>
@@ -1958,19 +1958,19 @@
         <v>6.8</v>
       </c>
       <c r="AO10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>10.25</v>
       </c>
       <c r="AQ10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -2005,50 +2005,50 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I11" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="J11" t="n">
-        <v>4.65</v>
+        <v>4.25</v>
       </c>
       <c r="K11" t="n">
         <v>1.98</v>
       </c>
       <c r="L11" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="X11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="Y11" t="n">
         <v>1.47</v>
@@ -2063,28 +2063,28 @@
         <v>1.78</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="n">
         <v>50</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AK11" t="n">
         <v>15.5</v>
@@ -2096,22 +2096,22 @@
         <v>800</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AP11" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AQ11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AR11" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AS11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -2308,7 +2308,7 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>
@@ -2319,18 +2319,18 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y13" t="n">
         <v>1.4</v>
@@ -2428,13 +2428,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2443,7 +2443,7 @@
         <v>1.91</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.11</v>
@@ -2472,16 +2472,16 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA14" t="n">
         <v>2.2</v>
@@ -2490,10 +2490,10 @@
         <v>1.62</v>
       </c>
       <c r="AC14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2502,13 +2502,13 @@
         <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
         <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
         <v>6</v>
@@ -2523,10 +2523,10 @@
         <v>501</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -2538,7 +2538,7 @@
         <v>34</v>
       </c>
       <c r="AS14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -2573,34 +2573,34 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
         <v>3.25</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
         <v>1.78</v>
@@ -2609,33 +2609,33 @@
         <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="X15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA15" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD15" t="n">
         <v>10</v>
@@ -2647,28 +2647,28 @@
         <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM15" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
@@ -2718,42 +2718,42 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I16" t="n">
         <v>1.33</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="n">
         <v>2.05</v>
@@ -2762,10 +2762,10 @@
         <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y16" t="n">
         <v>1.33</v>
@@ -2813,16 +2813,16 @@
         <v>451</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO16" t="n">
         <v>6</v>
       </c>
       <c r="AP16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>12</v>
@@ -2895,10 +2895,10 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -3145,16 +3145,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.3</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
@@ -3197,16 +3197,16 @@
         <v>2.63</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE19" t="n">
         <v>9</v>
@@ -3215,7 +3215,7 @@
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>29</v>
@@ -3245,13 +3245,13 @@
         <v>12</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
         <v>29</v>
       </c>
       <c r="AS19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -3286,16 +3286,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
         <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
         <v>2.2</v>
@@ -3304,24 +3304,24 @@
         <v>2.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3350,16 +3350,16 @@
         <v>29</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG20" t="n">
         <v>41</v>
       </c>
       <c r="AH20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
@@ -3374,7 +3374,7 @@
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN20" t="n">
         <v>6.5</v>
@@ -3392,7 +3392,7 @@
         <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
         <v>4.33</v>
@@ -3439,10 +3439,10 @@
         <v>2.25</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3465,16 +3465,16 @@
         <v>2.1</v>
       </c>
       <c r="U21" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="X21" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y21" t="n">
         <v>1.33</v>
@@ -3572,34 +3572,34 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
         <v>2.25</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
         <v>1.8</v>
@@ -3608,66 +3608,66 @@
         <v>2.05</v>
       </c>
       <c r="S22" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="T22" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="X22" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
         <v>15</v>
       </c>
       <c r="AE22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF22" t="n">
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ22" t="n">
         <v>6.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM22" t="n">
-        <v>451</v>
+        <v>301</v>
       </c>
       <c r="AN22" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AO22" t="n">
         <v>10</v>
@@ -3679,10 +3679,10 @@
         <v>21</v>
       </c>
       <c r="AR22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -3717,10 +3717,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
         <v>4.1</v>
@@ -3729,10 +3729,10 @@
         <v>2.5</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3753,10 +3753,10 @@
         <v>2.65</v>
       </c>
       <c r="S23" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U23" t="n">
         <v>2.55</v>
@@ -3765,10 +3765,10 @@
         <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="X23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Y23" t="n">
         <v>1.44</v>
@@ -3777,43 +3777,43 @@
         <v>2.63</v>
       </c>
       <c r="AA23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD23" t="n">
         <v>8</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF23" t="n">
         <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
         <v>7</v>
       </c>
       <c r="AK23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM23" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AN23" t="n">
         <v>10</v>
@@ -3822,13 +3822,13 @@
         <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS23" t="n">
         <v>41</v>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -3890,18 +3890,18 @@
         <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
@@ -3910,10 +3910,10 @@
         <v>1.65</v>
       </c>
       <c r="W24" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X24" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y24" t="n">
         <v>1.44</v>
@@ -3922,22 +3922,22 @@
         <v>2.63</v>
       </c>
       <c r="AA24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AB24" t="n">
         <v>1.95</v>
       </c>
-      <c r="AB24" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AC24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>9</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG24" t="n">
         <v>19</v>
@@ -3946,7 +3946,7 @@
         <v>29</v>
       </c>
       <c r="AI24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ24" t="n">
         <v>6</v>
@@ -3958,7 +3958,7 @@
         <v>51</v>
       </c>
       <c r="AM24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="n">
         <v>10</v>
@@ -3967,13 +3967,13 @@
         <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS24" t="n">
         <v>41</v>
@@ -4082,28 +4082,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
         <v>2.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -4122,10 +4122,10 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y26" t="n">
         <v>1.4</v>
@@ -4143,10 +4143,10 @@
         <v>11</v>
       </c>
       <c r="AD26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -4164,7 +4164,7 @@
         <v>6.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>51</v>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="J27" t="n">
         <v>7.3</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -707,13 +707,13 @@
         <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -758,7 +758,7 @@
         <v>1.57</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
@@ -776,7 +776,7 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AJ2" t="n">
         <v>5.5</v>
@@ -844,7 +844,7 @@
         <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
         <v>6.5</v>
@@ -871,22 +871,22 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U3" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
         <v>4.5</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1360,13 +1360,13 @@
         <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
@@ -1390,16 +1390,16 @@
         <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>11</v>
       </c>
       <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
         <v>26</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>23</v>
       </c>
       <c r="AS6" t="n">
         <v>41</v>
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="K7" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="L7" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1461,18 +1461,18 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="T7" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1480,55 +1480,55 @@
         <v>2.05</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG7" t="n">
         <v>10.75</v>
       </c>
       <c r="AH7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK7" t="n">
         <v>30</v>
       </c>
-      <c r="AI7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>28</v>
-      </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM7" t="n">
         <v>800</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AP7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ7" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AR7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS7" t="n">
         <v>120</v>
@@ -1635,13 +1635,13 @@
         <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
         <v>29</v>
@@ -1864,86 +1864,86 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
         <v>2.77</v>
       </c>
       <c r="J10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L10" t="n">
         <v>3.55</v>
       </c>
-      <c r="K10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.5</v>
-      </c>
       <c r="M10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="T10" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="X10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y10" t="n">
         <v>1.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AB10" t="n">
         <v>1.75</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF10" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AH10" t="n">
         <v>45</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AK10" t="n">
         <v>15.5</v>
@@ -1955,10 +1955,10 @@
         <v>900</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP10" t="n">
         <v>10.25</v>
@@ -1967,7 +1967,7 @@
         <v>35</v>
       </c>
       <c r="AR10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS10" t="n">
         <v>45</v>
@@ -2005,56 +2005,56 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>2.72</v>
+        <v>2.87</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AA11" t="n">
         <v>1.93</v>
@@ -2063,31 +2063,31 @@
         <v>1.78</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AH11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AK11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL11" t="n">
         <v>90</v>
@@ -2099,19 +2099,19 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AQ11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -2146,19 +2146,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I12" t="n">
         <v>12.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L12" t="n">
         <v>9.75</v>
@@ -2167,47 +2167,47 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T12" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="X12" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AE12" t="n">
         <v>9</v>
@@ -2216,16 +2216,16 @@
         <v>7</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AH12" t="n">
         <v>37</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK12" t="n">
         <v>29</v>
@@ -2237,7 +2237,7 @@
         <v>101</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO12" t="n">
         <v>100</v>
@@ -2311,18 +2311,18 @@
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2472,10 +2472,10 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y14" t="n">
         <v>1.62</v>
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
@@ -2585,22 +2585,22 @@
         <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
         <v>1.78</v>
@@ -2609,69 +2609,69 @@
         <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
@@ -2680,10 +2680,10 @@
         <v>34</v>
       </c>
       <c r="AR15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2736,24 +2736,24 @@
         <v>1.8</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
         <v>2.05</v>
@@ -2762,10 +2762,10 @@
         <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Y16" t="n">
         <v>1.33</v>
@@ -3022,10 +3022,10 @@
         <v>9</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
         <v>1.22</v>
@@ -3145,7 +3145,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
@@ -3154,7 +3154,7 @@
         <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
@@ -3206,7 +3206,7 @@
         <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>9</v>
@@ -3215,7 +3215,7 @@
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>29</v>
@@ -3251,7 +3251,7 @@
         <v>29</v>
       </c>
       <c r="AS19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -3286,13 +3286,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J20" t="n">
         <v>6</v>
@@ -3307,7 +3307,7 @@
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.29</v>
@@ -3318,10 +3318,10 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -3362,7 +3362,7 @@
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>7</v>
@@ -3380,7 +3380,7 @@
         <v>6.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP20" t="n">
         <v>8.5</v>
@@ -3427,42 +3427,42 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I21" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.25</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L21" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U21" t="n">
         <v>2.05</v>
@@ -3471,16 +3471,16 @@
         <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AA21" t="n">
         <v>1.75</v>
@@ -3492,25 +3492,25 @@
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>8.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -3522,19 +3522,19 @@
         <v>201</v>
       </c>
       <c r="AN21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP21" t="n">
         <v>13</v>
       </c>
-      <c r="AO21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS21" t="n">
         <v>34</v>
@@ -3717,13 +3717,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>2.5</v>
@@ -3795,13 +3795,13 @@
         <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
         <v>7</v>
@@ -3813,7 +3813,7 @@
         <v>51</v>
       </c>
       <c r="AM23" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN23" t="n">
         <v>10</v>
@@ -3822,7 +3822,7 @@
         <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
@@ -3872,7 +3872,7 @@
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
         <v>2.88</v>
@@ -3884,10 +3884,10 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3961,7 +3961,7 @@
         <v>251</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO24" t="n">
         <v>17</v>
@@ -3976,7 +3976,7 @@
         <v>29</v>
       </c>
       <c r="AS24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -4085,7 +4085,7 @@
         <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I26" t="n">
         <v>2.05</v>
@@ -4094,16 +4094,16 @@
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
         <v>2.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
@@ -4114,10 +4114,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T26" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4223,19 +4223,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="H27" t="n">
         <v>5.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="J27" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="K27" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="L27" t="n">
         <v>1.7</v>
@@ -4247,26 +4247,26 @@
         <v>9.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P27" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X27" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Y27" t="n">
         <v>1.27</v>
@@ -4275,22 +4275,22 @@
         <v>3.45</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AC27" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD27" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AG27" t="n">
         <v>100</v>
@@ -4302,7 +4302,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
@@ -4311,16 +4311,16 @@
         <v>90</v>
       </c>
       <c r="AM27" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AP27" t="n">
         <v>8.75</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>9</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
@@ -4329,7 +4329,7 @@
         <v>10.25</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.25</v>
       </c>
-      <c r="H2" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.6</v>
-      </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.67</v>
@@ -722,22 +722,22 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="R2" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -758,25 +758,25 @@
         <v>1.57</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="n">
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AJ2" t="n">
         <v>5.5</v>
@@ -791,22 +791,22 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP2" t="n">
         <v>11</v>
       </c>
-      <c r="AP2" t="n">
-        <v>12</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -841,28 +841,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -871,28 +871,28 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y3" t="n">
         <v>1.53</v>
@@ -901,22 +901,22 @@
         <v>2.38</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AC3" t="n">
         <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -928,34 +928,34 @@
         <v>7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -1044,10 +1044,10 @@
         <v>1.18</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA4" t="n">
         <v>2.25</v>
@@ -1074,7 +1074,7 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ4" t="n">
         <v>7</v>
@@ -1175,10 +1175,10 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
         <v>3.65</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
         <v>2.8</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1330,7 +1330,7 @@
         <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="V6" t="n">
         <v>1.26</v>
@@ -1354,10 +1354,10 @@
         <v>1.75</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1387,10 +1387,10 @@
         <v>451</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP6" t="n">
         <v>11</v>
@@ -1437,22 +1437,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="H7" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="K7" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="L7" t="n">
-        <v>9.25</v>
+        <v>12.5</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
@@ -1477,61 +1477,61 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI7" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AL7" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM7" t="n">
         <v>800</v>
       </c>
       <c r="AN7" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AO7" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AP7" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AQ7" t="n">
-        <v>450</v>
+        <v>900</v>
       </c>
       <c r="AR7" t="n">
-        <v>175</v>
+        <v>400</v>
       </c>
       <c r="AS7" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1596,22 +1596,22 @@
         <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="R8" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="S8" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W8" t="n">
         <v>4.33</v>
@@ -1867,110 +1867,110 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I10" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="L10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N10" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="P10" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="T10" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF10" t="n">
         <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AH10" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AI10" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AK10" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AM10" t="n">
         <v>900</v>
       </c>
       <c r="AN10" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AO10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AQ10" t="n">
         <v>35</v>
       </c>
       <c r="AR10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
@@ -2005,31 +2005,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="J11" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L11" t="n">
-        <v>2.87</v>
+        <v>2.67</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P11" t="n">
         <v>2.57</v>
@@ -2037,7 +2037,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T11" t="n">
         <v>1.55</v>
@@ -2045,7 +2045,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="X11" t="n">
         <v>1.2</v>
@@ -2057,58 +2057,58 @@
         <v>2.42</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AC11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP11" t="n">
         <v>8.75</v>
       </c>
-      <c r="AD11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>800</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>9</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
         <v>37</v>
@@ -2290,7 +2290,7 @@
         <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
         <v>4.33</v>
@@ -2299,16 +2299,16 @@
         <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
         <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -2319,18 +2319,18 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.98</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.88</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="X13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y13" t="n">
         <v>1.4</v>
@@ -2339,16 +2339,16 @@
         <v>2.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>8.5</v>
@@ -2363,22 +2363,22 @@
         <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AJ13" t="n">
         <v>6.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
         <v>21</v>
@@ -2428,40 +2428,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>1.91</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S14" t="n">
         <v>2.75</v>
@@ -2472,10 +2472,10 @@
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y14" t="n">
         <v>1.62</v>
@@ -2490,10 +2490,10 @@
         <v>1.62</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE14" t="n">
         <v>10</v>
@@ -2502,7 +2502,7 @@
         <v>21</v>
       </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH14" t="n">
         <v>41</v>
@@ -2523,10 +2523,10 @@
         <v>501</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -2538,7 +2538,7 @@
         <v>34</v>
       </c>
       <c r="AS14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -2573,16 +2573,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
@@ -2594,13 +2594,13 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
         <v>1.78</v>
@@ -2609,10 +2609,10 @@
         <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -2623,58 +2623,58 @@
         <v>1.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD15" t="n">
         <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>34</v>
@@ -2718,22 +2718,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2786,16 +2786,16 @@
         <v>41</v>
       </c>
       <c r="AE16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG16" t="n">
         <v>67</v>
       </c>
       <c r="AH16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -2810,19 +2810,19 @@
         <v>67</v>
       </c>
       <c r="AM16" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AN16" t="n">
         <v>7</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP16" t="n">
         <v>9</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AR16" t="n">
         <v>12</v>
@@ -2863,22 +2863,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
         <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2942,25 +2942,25 @@
         <v>8.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>67</v>
       </c>
       <c r="AM17" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
         <v>51</v>
@@ -2969,7 +2969,7 @@
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
@@ -3004,22 +3004,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K18" t="n">
         <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3056,13 +3056,13 @@
         <v>3.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
@@ -3071,7 +3071,7 @@
         <v>9</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -3083,7 +3083,7 @@
         <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3095,7 +3095,7 @@
         <v>501</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
@@ -3104,13 +3104,13 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR18" t="n">
         <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19">
@@ -3145,16 +3145,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H19" t="n">
         <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.1</v>
@@ -3163,32 +3163,32 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T19" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y19" t="n">
         <v>1.44</v>
@@ -3197,16 +3197,16 @@
         <v>2.63</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE19" t="n">
         <v>9</v>
@@ -3215,7 +3215,7 @@
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
         <v>29</v>
@@ -3233,10 +3233,10 @@
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>17</v>
@@ -3289,7 +3289,7 @@
         <v>5.75</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
         <v>1.57</v>
@@ -3298,16 +3298,16 @@
         <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L20" t="n">
         <v>2.2</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.29</v>
@@ -3318,18 +3318,18 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T20" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X20" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y20" t="n">
         <v>1.4</v>
@@ -3362,7 +3362,7 @@
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
         <v>7</v>
@@ -3374,25 +3374,25 @@
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP20" t="n">
         <v>8.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR20" t="n">
         <v>13</v>
       </c>
       <c r="AS20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
@@ -3445,24 +3445,24 @@
         <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="U21" t="n">
         <v>2.05</v>
@@ -3471,10 +3471,10 @@
         <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="X21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Y21" t="n">
         <v>1.36</v>
@@ -3608,10 +3608,10 @@
         <v>2.05</v>
       </c>
       <c r="S22" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -3741,10 +3741,10 @@
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q23" t="n">
         <v>1.47</v>
@@ -3753,10 +3753,10 @@
         <v>2.65</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T23" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
         <v>2.55</v>
@@ -3910,10 +3910,10 @@
         <v>1.65</v>
       </c>
       <c r="W24" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X24" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y24" t="n">
         <v>1.44</v>
@@ -4085,7 +4085,7 @@
         <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I26" t="n">
         <v>2.05</v>
@@ -4094,7 +4094,7 @@
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
         <v>2.75</v>
@@ -4114,10 +4114,10 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -4223,113 +4223,113 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="H27" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I27" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="J27" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="K27" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O27" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P27" t="n">
-        <v>4.65</v>
+        <v>4.9</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T27" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="X27" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AC27" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AD27" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF27" t="n">
         <v>300</v>
       </c>
       <c r="AG27" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AH27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM27" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN27" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AO27" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AP27" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AQ27" t="n">
         <v>8</v>
       </c>
       <c r="AR27" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -707,7 +707,7 @@
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.14</v>
@@ -716,16 +716,16 @@
         <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="R2" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="S2" t="n">
         <v>3.1</v>
@@ -734,10 +734,10 @@
         <v>1.36</v>
       </c>
       <c r="U2" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W2" t="n">
         <v>6.5</v>
@@ -794,16 +794,16 @@
         <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>11</v>
       </c>
       <c r="AQ2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR2" t="n">
         <v>23</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>26</v>
       </c>
       <c r="AS2" t="n">
         <v>41</v>
@@ -841,52 +841,52 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -895,10 +895,10 @@
         <v>1.17</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA3" t="n">
         <v>2.25</v>
@@ -910,25 +910,25 @@
         <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK3" t="n">
         <v>21</v>
@@ -940,19 +940,19 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>51</v>
@@ -1032,10 +1032,10 @@
         <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W4" t="n">
         <v>4.5</v>
@@ -1175,10 +1175,10 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
         <v>3.65</v>
@@ -1566,112 +1566,112 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AC8" t="n">
         <v>8</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
         <v>34</v>
       </c>
-      <c r="AG8" t="n">
-        <v>29</v>
-      </c>
       <c r="AH8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="n">
         <v>351</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AQ8" t="n">
         <v>21</v>
@@ -1680,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="AS8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -2146,113 +2146,113 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="H12" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="J12" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="K12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="X12" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.35</v>
+        <v>2.12</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AH12" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AM12" t="n">
         <v>101</v>
       </c>
       <c r="AN12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
         <v>100</v>
       </c>
       <c r="AP12" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AQ12" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AR12" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS12" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2290,10 +2290,10 @@
         <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
         <v>2.5</v>
@@ -2305,10 +2305,10 @@
         <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -2319,10 +2319,10 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2363,13 +2363,13 @@
         <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ13" t="n">
         <v>6.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
         <v>41</v>
@@ -2378,7 +2378,7 @@
         <v>201</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO13" t="n">
         <v>21</v>
@@ -2428,7 +2428,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
@@ -2437,7 +2437,7 @@
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>1.91</v>
@@ -2499,7 +2499,7 @@
         <v>10</v>
       </c>
       <c r="AF14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
         <v>23</v>
@@ -2591,10 +2591,10 @@
         <v>3.75</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2609,18 +2609,18 @@
         <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y15" t="n">
         <v>1.44</v>
@@ -2656,7 +2656,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -2674,7 +2674,7 @@
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>34</v>
@@ -2768,10 +2768,10 @@
         <v>1.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AA16" t="n">
         <v>2.1</v>
@@ -2795,13 +2795,13 @@
         <v>67</v>
       </c>
       <c r="AH16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK16" t="n">
         <v>21</v>
@@ -2810,16 +2810,16 @@
         <v>67</v>
       </c>
       <c r="AM16" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AN16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>8.5</v>
@@ -2863,50 +2863,50 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>2.38</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="X17" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Y17" t="n">
         <v>1.44</v>
@@ -2915,13 +2915,13 @@
         <v>2.63</v>
       </c>
       <c r="AA17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD17" t="n">
         <v>7.5</v>
@@ -2939,28 +2939,28 @@
         <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AJ17" t="n">
         <v>7</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AN17" t="n">
         <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ17" t="n">
         <v>51</v>
@@ -2969,7 +2969,7 @@
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -3004,22 +3004,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H18" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K18" t="n">
         <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3036,10 +3036,10 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -3056,13 +3056,13 @@
         <v>3.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
@@ -3071,19 +3071,19 @@
         <v>9</v>
       </c>
       <c r="AF18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3104,13 +3104,13 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR18" t="n">
         <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -3445,24 +3445,24 @@
         <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="U21" t="n">
         <v>2.05</v>
@@ -3471,10 +3471,10 @@
         <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Y21" t="n">
         <v>1.36</v>
@@ -3572,10 +3572,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
         <v>2.25</v>
@@ -3584,7 +3584,7 @@
         <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
         <v>3</v>
@@ -3611,15 +3611,15 @@
         <v>2.05</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y22" t="n">
         <v>1.44</v>
@@ -3628,13 +3628,13 @@
         <v>2.63</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
         <v>15</v>
@@ -3646,13 +3646,13 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="n">
         <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>6.5</v>
@@ -3664,13 +3664,13 @@
         <v>51</v>
       </c>
       <c r="AM22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN22" t="n">
         <v>7.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
         <v>9.5</v>
@@ -3720,7 +3720,7 @@
         <v>1.83</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
@@ -3753,10 +3753,10 @@
         <v>2.65</v>
       </c>
       <c r="S23" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U23" t="n">
         <v>2.55</v>
@@ -3765,10 +3765,10 @@
         <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Y23" t="n">
         <v>1.44</v>
@@ -3786,7 +3786,7 @@
         <v>6.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE23" t="n">
         <v>8.5</v>
@@ -3795,13 +3795,13 @@
         <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH23" t="n">
         <v>29</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
         <v>7</v>
@@ -3813,7 +3813,7 @@
         <v>51</v>
       </c>
       <c r="AM23" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AN23" t="n">
         <v>10</v>
@@ -3822,7 +3822,7 @@
         <v>21</v>
       </c>
       <c r="AP23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
@@ -3898,10 +3898,10 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
@@ -4094,38 +4094,38 @@
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
         <v>2.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Y26" t="n">
         <v>1.4</v>
@@ -4134,10 +4134,10 @@
         <v>2.75</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AB26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AC26" t="n">
         <v>11</v>
@@ -4170,13 +4170,13 @@
         <v>51</v>
       </c>
       <c r="AM26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="n">
         <v>7.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP26" t="n">
         <v>9</v>
@@ -4223,113 +4223,113 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="H27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P27" t="n">
         <v>5.3</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N27" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4.9</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T27" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="X27" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AC27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD27" t="n">
         <v>75</v>
       </c>
       <c r="AE27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AH27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>21</v>
       </c>
       <c r="AL27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM27" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AN27" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AP27" t="n">
         <v>9</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AR27" t="n">
         <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
         <v>1.14</v>
@@ -716,10 +716,10 @@
         <v>5.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
         <v>2.18</v>
@@ -728,10 +728,10 @@
         <v>1.69</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U2" t="n">
         <v>5</v>
@@ -740,16 +740,16 @@
         <v>1.17</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA2" t="n">
         <v>2.25</v>
@@ -758,7 +758,7 @@
         <v>1.57</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>17</v>
@@ -776,10 +776,10 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -797,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
         <v>21</v>
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.9</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -883,7 +883,7 @@
         <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="V3" t="n">
         <v>1.24</v>
@@ -901,25 +901,25 @@
         <v>2.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC3" t="n">
         <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>9</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -928,10 +928,10 @@
         <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>81</v>
@@ -940,19 +940,19 @@
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR3" t="n">
         <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>51</v>
@@ -990,22 +990,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
         <v>6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1020,28 +1020,28 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="V4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y4" t="n">
         <v>1.53</v>
@@ -1065,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1139,22 +1139,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1175,16 +1175,16 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="V5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
         <v>4.33</v>
@@ -1199,13 +1199,13 @@
         <v>2.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1220,7 +1220,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
         <v>7.5</v>
@@ -1229,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL5" t="n">
         <v>81</v>
@@ -1241,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1318,10 +1318,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
@@ -2287,65 +2287,65 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
         <v>4.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="X13" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AB13" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
         <v>9</v>
@@ -2354,16 +2354,16 @@
         <v>8.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>6.5</v>
@@ -2372,19 +2372,19 @@
         <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>41</v>
@@ -2428,60 +2428,60 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J14" t="n">
         <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>1.91</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X14" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA14" t="n">
         <v>2.2</v>
@@ -2493,22 +2493,22 @@
         <v>6</v>
       </c>
       <c r="AD14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE14" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>10</v>
-      </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
         <v>41</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>6</v>
@@ -2517,16 +2517,16 @@
         <v>19</v>
       </c>
       <c r="AL14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM14" t="n">
         <v>501</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -2573,28 +2573,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2609,10 +2609,10 @@
         <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -2638,16 +2638,16 @@
         <v>7.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -2656,7 +2656,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK15" t="n">
         <v>15</v>
@@ -2668,22 +2668,22 @@
         <v>251</v>
       </c>
       <c r="AN15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2730,7 +2730,7 @@
         <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L16" t="n">
         <v>1.83</v>
@@ -2750,10 +2750,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U16" t="n">
         <v>2.05</v>
@@ -2819,7 +2819,7 @@
         <v>6</v>
       </c>
       <c r="AP16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AQ16" t="n">
         <v>8.5</v>
@@ -2863,22 +2863,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
         <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2887,32 +2887,32 @@
         <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="X17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AA17" t="n">
         <v>1.91</v>
@@ -3004,22 +3004,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3028,50 +3028,50 @@
         <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="T18" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG18" t="n">
         <v>12</v>
@@ -3080,13 +3080,13 @@
         <v>34</v>
       </c>
       <c r="AI18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>12</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>11</v>
-      </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
         <v>81</v>
@@ -3095,19 +3095,19 @@
         <v>501</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
         <v>67</v>
@@ -3148,47 +3148,47 @@
         <v>2.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
         <v>2.75</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y19" t="n">
         <v>1.44</v>
@@ -3197,13 +3197,13 @@
         <v>2.63</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
         <v>9.5</v>
@@ -3221,7 +3221,7 @@
         <v>29</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ19" t="n">
         <v>6.5</v>
@@ -3233,16 +3233,16 @@
         <v>51</v>
       </c>
       <c r="AM19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO19" t="n">
         <v>17</v>
       </c>
       <c r="AP19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
@@ -3251,7 +3251,7 @@
         <v>29</v>
       </c>
       <c r="AS19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -3286,22 +3286,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="M20" t="n">
         <v>1.05</v>
@@ -3318,18 +3318,18 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T20" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y20" t="n">
         <v>1.4</v>
@@ -3338,28 +3338,28 @@
         <v>2.75</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AC20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
         <v>41</v>
       </c>
       <c r="AH20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
@@ -3368,25 +3368,25 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AN20" t="n">
         <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP20" t="n">
         <v>8.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>13</v>
@@ -3572,13 +3572,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J22" t="n">
         <v>3.75</v>
@@ -3587,13 +3587,13 @@
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.33</v>
@@ -3646,7 +3646,7 @@
         <v>34</v>
       </c>
       <c r="AG22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
         <v>34</v>
@@ -3664,16 +3664,16 @@
         <v>51</v>
       </c>
       <c r="AM22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN22" t="n">
         <v>7.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>21</v>
@@ -3717,22 +3717,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3756,7 +3756,7 @@
         <v>2.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U23" t="n">
         <v>2.55</v>
@@ -3765,10 +3765,10 @@
         <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="X23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y23" t="n">
         <v>1.44</v>
@@ -3777,25 +3777,25 @@
         <v>2.63</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
         <v>29</v>
@@ -3813,13 +3813,13 @@
         <v>51</v>
       </c>
       <c r="AM23" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AN23" t="n">
         <v>10</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
         <v>13</v>
@@ -3828,7 +3828,7 @@
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS23" t="n">
         <v>41</v>
@@ -3866,22 +3866,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3922,25 +3922,25 @@
         <v>2.63</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE24" t="n">
         <v>9</v>
       </c>
       <c r="AF24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
         <v>29</v>
@@ -3958,25 +3958,25 @@
         <v>51</v>
       </c>
       <c r="AM24" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AN24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
         <v>17</v>
       </c>
       <c r="AP24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR24" t="n">
         <v>29</v>
       </c>
       <c r="AS24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -4226,19 +4226,19 @@
         <v>9</v>
       </c>
       <c r="H27" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I27" t="n">
         <v>1.24</v>
       </c>
       <c r="J27" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="L27" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="M27" t="n">
         <v>1.02</v>
@@ -4247,44 +4247,44 @@
         <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P27" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="T27" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="X27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AA27" t="n">
         <v>1.75</v>
       </c>
-      <c r="Y27" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1.78</v>
-      </c>
       <c r="AB27" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AC27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD27" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE27" t="n">
         <v>29</v>
@@ -4296,40 +4296,40 @@
         <v>100</v>
       </c>
       <c r="AH27" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM27" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AN27" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AP27" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AQ27" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AR27" t="n">
         <v>10</v>
       </c>
       <c r="AS27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -692,73 +692,73 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R2" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="V2" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
         <v>17</v>
@@ -776,16 +776,16 @@
         <v>51</v>
       </c>
       <c r="AI2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>6</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
@@ -794,16 +794,16 @@
         <v>5.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AS2" t="n">
         <v>41</v>
@@ -841,19 +841,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -913,13 +913,13 @@
         <v>6.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -928,19 +928,19 @@
         <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM3" t="n">
         <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO3" t="n">
         <v>26</v>
@@ -955,7 +955,7 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -990,64 +990,64 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="X4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA4" t="n">
         <v>2.25</v>
@@ -1074,13 +1074,13 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>7</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>81</v>
@@ -1089,10 +1089,10 @@
         <v>101</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
@@ -1175,10 +1175,10 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
         <v>3.7</v>
@@ -1291,13 +1291,13 @@
         <v>2.8</v>
       </c>
       <c r="H6" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I6" t="n">
         <v>2.8</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
@@ -1387,10 +1387,10 @@
         <v>451</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>11</v>
@@ -1566,52 +1566,52 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
         <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
         <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="T8" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
@@ -1620,10 +1620,10 @@
         <v>1.14</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA8" t="n">
         <v>2.2</v>
@@ -1635,7 +1635,7 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
@@ -1650,7 +1650,7 @@
         <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
@@ -1668,7 +1668,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP8" t="n">
         <v>10</v>
@@ -1677,7 +1677,7 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
         <v>41</v>
@@ -2290,25 +2290,25 @@
         <v>1.91</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.36</v>
@@ -2319,10 +2319,10 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -2339,19 +2339,19 @@
         <v>2.63</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>9</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>8.5</v>
       </c>
       <c r="AF13" t="n">
         <v>17</v>
@@ -2363,22 +2363,22 @@
         <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>6.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
         <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO13" t="n">
         <v>19</v>
@@ -2617,10 +2617,10 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Y15" t="n">
         <v>1.44</v>
@@ -2638,7 +2638,7 @@
         <v>7.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>9</v>
@@ -2683,7 +2683,7 @@
         <v>29</v>
       </c>
       <c r="AS15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H18" t="n">
         <v>6</v>
@@ -3022,10 +3022,10 @@
         <v>10</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -3151,7 +3151,7 @@
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J19" t="n">
         <v>2.75</v>
@@ -3206,13 +3206,13 @@
         <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>17</v>
@@ -3236,10 +3236,10 @@
         <v>301</v>
       </c>
       <c r="AN19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP19" t="n">
         <v>13</v>
@@ -3248,7 +3248,7 @@
         <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS19" t="n">
         <v>41</v>
@@ -3898,10 +3898,10 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -871,10 +871,10 @@
         <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S3" t="n">
         <v>2.5</v>
@@ -883,10 +883,10 @@
         <v>1.5</v>
       </c>
       <c r="U3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -916,10 +916,10 @@
         <v>9.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
@@ -928,7 +928,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK3" t="n">
         <v>23</v>
@@ -990,40 +990,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.05</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
         <v>2.35</v>
@@ -1032,40 +1032,40 @@
         <v>1.57</v>
       </c>
       <c r="U4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="V4" t="n">
         <v>1.28</v>
       </c>
       <c r="W4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC4" t="n">
         <v>5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1074,16 +1074,16 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>7</v>
-      </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="n">
         <v>101</v>
@@ -1095,16 +1095,16 @@
         <v>29</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1175,10 +1175,10 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="U5" t="n">
         <v>3.7</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1330,10 +1330,10 @@
         <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1348,22 +1348,22 @@
         <v>2.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
         <v>26</v>
@@ -1384,22 +1384,22 @@
         <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
         <v>12</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>11</v>
       </c>
       <c r="AQ6" t="n">
         <v>29</v>
       </c>
       <c r="AR6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS6" t="n">
         <v>41</v>
@@ -1566,10 +1566,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I8" t="n">
         <v>2.25</v>
@@ -1584,10 +1584,10 @@
         <v>3.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
@@ -1608,10 +1608,10 @@
         <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="V8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
@@ -1632,7 +1632,7 @@
         <v>1.62</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-11.xlsx
@@ -1163,22 +1163,22 @@
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="U5" t="n">
         <v>3.7</v>
@@ -1187,10 +1187,10 @@
         <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y5" t="n">
         <v>1.5</v>
@@ -1214,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
         <v>17</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
@@ -1318,10 +1318,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S6" t="n">
         <v>2.5</v>
@@ -1330,10 +1330,10 @@
         <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1366,7 +1366,7 @@
         <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
@@ -1384,7 +1384,7 @@
         <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN6" t="n">
         <v>7.5</v>
@@ -1396,7 +1396,7 @@
         <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>29</v>
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H8" t="n">
         <v>2.9</v>
       </c>
       <c r="I8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -1581,13 +1581,13 @@
         <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.53</v>
@@ -1596,10 +1596,10 @@
         <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
         <v>2.7</v>
@@ -1608,10 +1608,10 @@
         <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W8" t="n">
         <v>5.5</v>
@@ -1632,7 +1632,7 @@
         <v>1.62</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>15</v>
@@ -1659,7 +1659,7 @@
         <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM8" t="n">
         <v>351</v>
